--- a/Figures/results/full_sys_1.xlsx
+++ b/Figures/results/full_sys_1.xlsx
@@ -111,6 +111,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Random DRV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -196,13 +221,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.1951</c:v>
+                  <c:v>0.19735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1406</c:v>
+                  <c:v>0.13625999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1145</c:v>
+                  <c:v>9.4439999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,13 +281,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3342</c:v>
+                  <c:v>0.28194000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24640000000000001</c:v>
+                  <c:v>0.25109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1661</c:v>
+                  <c:v>0.17230999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,11 +302,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="423659496"/>
-        <c:axId val="468474160"/>
+        <c:axId val="473043552"/>
+        <c:axId val="473042768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="423659496"/>
+        <c:axId val="473043552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -324,7 +349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468474160"/>
+        <c:crossAx val="473042768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -332,7 +357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468474160"/>
+        <c:axId val="473042768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -383,7 +408,400 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423659496"/>
+        <c:crossAx val="473043552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Extreme DRVs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spatial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mine</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>theor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27.403600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4619999999999997E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mine</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>theor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>37.395099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65390000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1849999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="420918496"/>
+        <c:axId val="420924768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="420918496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420924768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="420924768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420918496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -504,7 +922,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1012,15 +1973,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1034,6 +1995,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1308,10 +2301,13 @@
   <dimension ref="C2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
@@ -1329,13 +2325,13 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>0.1951</v>
+        <v>0.19735</v>
       </c>
       <c r="E3">
-        <v>0.1406</v>
+        <v>0.13625999999999999</v>
       </c>
       <c r="F3">
-        <v>0.1145</v>
+        <v>9.4439999999999996E-2</v>
       </c>
       <c r="H3">
         <v>0.1</v>
@@ -1352,13 +2348,13 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>0.3342</v>
+        <v>0.28194000000000002</v>
       </c>
       <c r="E4">
-        <v>0.24640000000000001</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="F4">
-        <v>0.1661</v>
+        <v>0.17230999999999999</v>
       </c>
       <c r="H4">
         <v>0.1</v>
@@ -1391,13 +2387,13 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>37.512099999999997</v>
+        <v>27.403600000000001</v>
       </c>
       <c r="E9">
-        <v>1.446</v>
+        <v>0.1123</v>
       </c>
       <c r="F9">
-        <v>1.3028999999999999</v>
+        <v>3.4619999999999997E-5</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
@@ -1405,13 +2401,13 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>53.919400000000003</v>
+        <v>37.395099999999999</v>
       </c>
       <c r="E10">
-        <v>2.4203000000000001</v>
+        <v>0.65390000000000004</v>
       </c>
       <c r="F10">
-        <v>0.69850000000000001</v>
+        <v>2.1849999999999999E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/results/full_sys_1.xlsx
+++ b/Figures/results/full_sys_1.xlsx
@@ -9,10 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dims" sheetId="2" r:id="rId2"/>
+    <sheet name="alt dataset" sheetId="3" r:id="rId3"/>
+    <sheet name="treesSearch" sheetId="4" r:id="rId4"/>
+    <sheet name="nsearch" sheetId="5" r:id="rId5"/>
+    <sheet name="k" sheetId="6" r:id="rId6"/>
+    <sheet name="datasetsize" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>base</t>
   </si>
@@ -42,6 +48,9 @@
   </si>
   <si>
     <t>Extreme</t>
+  </si>
+  <si>
+    <t>dim</t>
   </si>
 </sst>
 </file>
@@ -302,11 +311,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="473043552"/>
-        <c:axId val="473042768"/>
+        <c:axId val="263396552"/>
+        <c:axId val="263399296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="473043552"/>
+        <c:axId val="263396552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,7 +358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473042768"/>
+        <c:crossAx val="263399296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -357,7 +366,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="473042768"/>
+        <c:axId val="263399296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473043552"/>
+        <c:crossAx val="263396552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -695,11 +704,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="420918496"/>
-        <c:axId val="420924768"/>
+        <c:axId val="263396944"/>
+        <c:axId val="263395768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="420918496"/>
+        <c:axId val="263396944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420924768"/>
+        <c:crossAx val="263395768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -750,7 +759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420924768"/>
+        <c:axId val="263395768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,9 +810,2639 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420918496"/>
+        <c:crossAx val="263396944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>dims!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3590618331749399E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21638707792018999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27692246442663498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23085225235385001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>dims!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7863233115381503E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0683593319236303E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.144281768180134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18198198653087999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.185791484009901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>dims!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.68733733003297E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2345099867970695E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.114707409983327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.103587006205706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="297277200"/>
+        <c:axId val="297273280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="297277200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297273280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297273280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297277200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dims!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dims!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3590618331749399E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21638707792018999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27692246442663498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23085225235385001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dims!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dims!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.7863233115381503E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0683593319236303E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.144281768180134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18198198653087999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.185791484009901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dims!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dims!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.68733733003297E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2345099867970695E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.114707409983327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.103587006205706</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1009999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="370490368"/>
+        <c:axId val="296500320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="370490368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296500320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="296500320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370490368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>treesSearch!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>treesSearch!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.214286802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17311300800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.189360632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20547453500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="82584504"/>
+        <c:axId val="82580976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82584504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82580976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82580976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82584504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nsearch!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nsearch!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.68212472400000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36870466600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23359532699999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0851212000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nsearch!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nsearch!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.54765207800000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19262644800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15044725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7434906000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nsearch!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nsearch!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.26060987200000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14207087400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5726756000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7933058000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="82579800"/>
+        <c:axId val="82582152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82579800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82582152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82582152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82579800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>k!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>k!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.3978779631876499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12828588282289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20677052197399101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.281817366294904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35856439671521401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>k!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>k!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4436217711290507E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12954517188855399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17001640372759799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21662698127477301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>k!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>k!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.83885516846215E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1526827047154701E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3413162636768701E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12993804853537599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16441732500334699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="82492976"/>
+        <c:axId val="82492192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82492976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82492192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82492192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82492976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>datasetsize!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>datasetsize!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.12820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>datasetsize!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>datasetsize!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.8900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14452000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15368999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>datasetsize!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>datasetsize!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.3499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3049999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3130000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10349999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="397639120"/>
+        <c:axId val="397641080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="397639120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397641080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="397641080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397639120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -962,6 +3601,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1949,6 +4828,3102 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2027,6 +8002,211 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2300,8 +8480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,6 +8546,17 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="F5">
+        <v>8.4919999999999995E-2</v>
+      </c>
+    </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>5</v>
@@ -2408,6 +8599,442 @@
       </c>
       <c r="F10">
         <v>2.1849999999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5.7863233115381503E-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1.3590618331749399E-2</v>
+      </c>
+      <c r="F6">
+        <v>5.0683593319236303E-2</v>
+      </c>
+      <c r="G6">
+        <v>9.68733733003297E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0.21638707792018999</v>
+      </c>
+      <c r="F7">
+        <v>0.144281768180134</v>
+      </c>
+      <c r="G7">
+        <v>9.2345099867970695E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0.27692246442663498</v>
+      </c>
+      <c r="F8">
+        <v>0.18198198653087999</v>
+      </c>
+      <c r="G8">
+        <v>0.114707409983327</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>0.23085225235385001</v>
+      </c>
+      <c r="F9">
+        <v>0.185791484009901</v>
+      </c>
+      <c r="G9">
+        <v>0.103587006205706</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>0.1721</v>
+      </c>
+      <c r="F10">
+        <v>0.1565</v>
+      </c>
+      <c r="G10">
+        <v>9.1009999999999994E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0.42645</v>
+      </c>
+      <c r="F3">
+        <v>0.35438999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.46172000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.25663000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.21393000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.19672999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.23288947099999999</v>
+      </c>
+      <c r="F4">
+        <v>8.8887517999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.214286802</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0.17311300800000001</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0.189360632</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0.20547453500000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>0.68212472400000002</v>
+      </c>
+      <c r="E4">
+        <v>0.54765207800000004</v>
+      </c>
+      <c r="F4">
+        <v>0.26060987200000002</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>0.36870466600000001</v>
+      </c>
+      <c r="E5">
+        <v>0.19262644800000001</v>
+      </c>
+      <c r="F5">
+        <v>0.14207087400000001</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>0.23359532699999999</v>
+      </c>
+      <c r="E6">
+        <v>0.15044725</v>
+      </c>
+      <c r="F6">
+        <v>8.5726756000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7">
+        <v>8.0851212000000006E-2</v>
+      </c>
+      <c r="E7">
+        <v>6.7434906000000003E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.7933058000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>8.3978779631876499E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.83885516846215E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0.12828588282289</v>
+      </c>
+      <c r="D4">
+        <v>8.4436217711290507E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.1526827047154701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0.20677052197399101</v>
+      </c>
+      <c r="D5">
+        <v>0.12954517188855399</v>
+      </c>
+      <c r="E5">
+        <v>9.3413162636768701E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>0.281817366294904</v>
+      </c>
+      <c r="D6">
+        <v>0.17001640372759799</v>
+      </c>
+      <c r="E6">
+        <v>0.12993804853537599</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>0.35856439671521401</v>
+      </c>
+      <c r="D7">
+        <v>0.21662698127477301</v>
+      </c>
+      <c r="E7">
+        <v>0.16441732500334699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>10000</v>
+      </c>
+      <c r="D3">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="E3">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="F3">
+        <v>5.3499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>50000</v>
+      </c>
+      <c r="D4">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.1376</v>
+      </c>
+      <c r="F4">
+        <v>8.3049999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.14452000000000001</v>
+      </c>
+      <c r="F5">
+        <v>9.3130000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>200000</v>
+      </c>
+      <c r="D6">
+        <v>0.2278</v>
+      </c>
+      <c r="E6">
+        <v>0.15368999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.10349999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>500000</v>
+      </c>
+      <c r="D7">
+        <v>0.2631</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/results/full_sys_1.xlsx
+++ b/Figures/results/full_sys_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="nsearch" sheetId="5" r:id="rId5"/>
     <sheet name="k" sheetId="6" r:id="rId6"/>
     <sheet name="datasetsize" sheetId="7" r:id="rId7"/>
+    <sheet name="ntreesdataset" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,16 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>mine</t>
-  </si>
-  <si>
-    <t>theor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>spatial</t>
   </si>
@@ -50,7 +42,28 @@
     <t>Extreme</t>
   </si>
   <si>
-    <t>dim</t>
+    <t>std</t>
+  </si>
+  <si>
+    <t>perf</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Matching DRV</t>
+  </si>
+  <si>
+    <t>Tree Selection</t>
+  </si>
+  <si>
+    <t>Min/Max Distance</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>DRV Matching</t>
   </si>
 </sst>
 </file>
@@ -140,7 +153,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Random DRV</a:t>
+              <a:t>MPDG with Random DRVs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -212,13 +225,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>base</c:v>
+                  <c:v>Standard</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mine</c:v>
+                  <c:v>Tree Selection</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>theor</c:v>
+                  <c:v>Matching DRV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -272,13 +285,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>base</c:v>
+                  <c:v>Standard</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mine</c:v>
+                  <c:v>Tree Selection</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>theor</c:v>
+                  <c:v>Matching DRV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -311,11 +324,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="263396552"/>
-        <c:axId val="263399296"/>
+        <c:axId val="238893272"/>
+        <c:axId val="238896016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="263396552"/>
+        <c:axId val="238893272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -358,7 +371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263399296"/>
+        <c:crossAx val="238896016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -366,7 +379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263399296"/>
+        <c:axId val="238896016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,7 +430,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263396552"/>
+        <c:crossAx val="238893272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -431,6 +444,569 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPDG</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Number of Trees Generated</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ntreesdataset!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ntreesdataset!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ntreesdataset!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13489999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ntreesdataset!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ntreesdataset!$E$8:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ntreesdataset!$F$8:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.21310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21310000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ntreesdataset!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DRV Matching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ntreesdataset!$E$8:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ntreesdataset!$G$8:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.11E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="235675456"/>
+        <c:axId val="235673104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="235675456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Trees</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="235673104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="235673104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="235675456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -533,7 +1109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Extreme DRVs</a:t>
+              <a:t>MPDG with Extreme DRVs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -605,13 +1181,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>base</c:v>
+                  <c:v>Standard</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mine</c:v>
+                  <c:v>Tree Selection</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>theor</c:v>
+                  <c:v>Matching DRV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -665,13 +1241,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>base</c:v>
+                  <c:v>Standard</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mine</c:v>
+                  <c:v>Tree Selection</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>theor</c:v>
+                  <c:v>Matching DRV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -704,11 +1280,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="263396944"/>
-        <c:axId val="263395768"/>
+        <c:axId val="238897192"/>
+        <c:axId val="238898760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="263396944"/>
+        <c:axId val="238897192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +1327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263395768"/>
+        <c:crossAx val="238898760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -759,7 +1335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263395768"/>
+        <c:axId val="238898760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +1386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263396944"/>
+        <c:crossAx val="238897192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -906,6 +1482,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPDG</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Number of Dimensions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -939,14 +1545,25 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dims!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -955,14 +1572,47 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>dims!$E$5:$E$9</c:f>
+              <c:f>dims!$D$5:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dims!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -975,19 +1625,27 @@
                 <c:pt idx="3">
                   <c:v>0.27692246442663498</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23085225235385001</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dims!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -996,14 +1654,47 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>dims!$F$5:$F$9</c:f>
+              <c:f>dims!$D$5:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dims!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5.7863233115381503E-2</c:v>
                 </c:pt>
@@ -1016,19 +1707,27 @@
                 <c:pt idx="3">
                   <c:v>0.18198198653087999</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.185791484009901</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dims!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matching DRV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1037,14 +1736,47 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>dims!$G$5:$G$9</c:f>
+              <c:f>dims!$D$5:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dims!$G$5:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1057,12 +1789,9 @@
                 <c:pt idx="3">
                   <c:v>0.114707409983327</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.103587006205706</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1073,17 +1802,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="297277200"/>
-        <c:axId val="297273280"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="297277200"/>
+        <c:axId val="238897584"/>
+        <c:axId val="238893664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="238897584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1093,8 +1891,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1121,15 +1919,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297273280"/>
+        <c:crossAx val="238893664"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="297273280"/>
+        <c:axId val="238893664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,8 +1950,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1180,9 +1981,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297277200"/>
+        <c:crossAx val="238897584"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1276,6 +2077,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPDG on Corel Image Data Set</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Random DRVs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1309,257 +2140,129 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'alt dataset'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min/Max Distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'alt dataset'!$E$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tree Selection</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matching DRV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>dims!$D$5:$D$10</c:f>
+              <c:f>'alt dataset'!$E$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0.42645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0.35438999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>0.46172000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>dims!$E$5:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3590618331749399E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21638707792018999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.27692246442663498</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23085225235385001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1721</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'alt dataset'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'alt dataset'!$E$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tree Selection</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matching DRV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>dims!$D$5:$D$10</c:f>
+              <c:f>'alt dataset'!$E$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0.25663000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0.21393000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>0.19672999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>dims!$F$5:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.7863233115381503E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0683593319236303E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.144281768180134</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18198198653087999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.185791484009901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1565</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>dims!$D$5:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>dims!$G$5:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.68733733003297E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.2345099867970695E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.114707409983327</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.103587006205706</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.1009999999999994E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1569,30 +2272,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370490368"/>
-        <c:axId val="296500320"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="370490368"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="394833808"/>
+        <c:axId val="394827928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="394833808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1602,8 +2293,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1630,12 +2321,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296500320"/>
+        <c:crossAx val="394827928"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="296500320"/>
+        <c:axId val="394827928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,14 +2355,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1692,9 +2380,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370490368"/>
+        <c:crossAx val="394833808"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1788,6 +2476,430 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPDG on</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Corel Image Data Set Extreme DRVs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'alt dataset'!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min/Max Distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'alt dataset'!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tree Selection</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matching DRV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'alt dataset'!$E$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>203.904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8599999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'alt dataset'!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'alt dataset'!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tree Selection</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matching DRV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'alt dataset'!$E$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>169.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.1631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.77E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="293759952"/>
+        <c:axId val="293766224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="293759952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293766224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="293766224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293759952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPDG vs Number of Trees Selected</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1827,6 +2939,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>treesSearch!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1895,6 +3018,122 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>treesSearch!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>treesSearch!$F$10:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>treesSearch!$G$10:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.23288947099999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23288947099999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>treesSearch!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DRV Matching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>treesSearch!$F$10:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>treesSearch!$H$10:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.8887517999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8887517999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1903,11 +3142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82584504"/>
-        <c:axId val="82580976"/>
+        <c:axId val="238899152"/>
+        <c:axId val="238899544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82584504"/>
+        <c:axId val="238899152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,6 +3166,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Trees</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1964,12 +3259,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82580976"/>
+        <c:crossAx val="238899544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82580976"/>
+        <c:axId val="238899544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,451 +3321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82584504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>nsearch!$C$4:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>nsearch!$D$4:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.68212472400000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36870466600000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23359532699999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0851212000000006E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>nsearch!$C$4:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>nsearch!$E$4:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.54765207800000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19262644800000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15044725</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.7434906000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>nsearch!$C$4:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>nsearch!$F$4:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.26060987200000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14207087400000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.5726756000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7933058000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="82579800"/>
-        <c:axId val="82582152"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="82579800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="82582152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="82582152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="82579800"/>
+        <c:crossAx val="238899152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2566,6 +3417,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPDG vs Number of Nodes Searched</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2605,6 +3481,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nsearch!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2631,48 +3518,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>k!$B$3:$B$7</c:f>
+              <c:f>nsearch!$C$4:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>k!$C$3:$C$7</c:f>
+              <c:f>nsearch!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.3978779631876499E-2</c:v>
+                  <c:v>0.68212472400000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12828588282289</c:v>
+                  <c:v>0.36870466600000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20677052197399101</c:v>
+                  <c:v>0.23359532699999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.281817366294904</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.35856439671521401</c:v>
+                  <c:v>8.0851212000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2682,6 +3563,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nsearch!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2708,48 +3600,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>k!$B$3:$B$7</c:f>
+              <c:f>nsearch!$C$4:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>k!$D$3:$D$7</c:f>
+              <c:f>nsearch!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>0.54765207800000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4436217711290507E-2</c:v>
+                  <c:v>0.19262644800000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12954517188855399</c:v>
+                  <c:v>0.15044725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17001640372759799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21662698127477301</c:v>
+                  <c:v>6.7434906000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2759,6 +3645,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nsearch!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DRV Matching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2785,48 +3682,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>k!$B$3:$B$7</c:f>
+              <c:f>nsearch!$C$4:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>k!$E$3:$E$7</c:f>
+              <c:f>nsearch!$F$4:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.83885516846215E-2</c:v>
+                  <c:v>0.26060987200000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1526827047154701E-2</c:v>
+                  <c:v>0.14207087400000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3413162636768701E-2</c:v>
+                  <c:v>8.5726756000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12993804853537599</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16441732500334699</c:v>
+                  <c:v>1.7933058000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2841,11 +3732,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82492976"/>
-        <c:axId val="82492192"/>
+        <c:axId val="291030312"/>
+        <c:axId val="291023256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82492976"/>
+        <c:axId val="291030312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2865,6 +3756,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes Searched</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2902,12 +3849,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82492192"/>
+        <c:crossAx val="291023256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82492192"/>
+        <c:axId val="291023256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2964,7 +3911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82492976"/>
+        <c:crossAx val="291030312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3060,6 +4007,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPDG vs Size of Result Set</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3094,11 +4066,22 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3125,51 +4108,68 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>datasetsize!$C$3:$C$6</c:f>
+              <c:f>k!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200000</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>datasetsize!$D$3:$D$6</c:f>
+              <c:f>k!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.12820000000000001</c:v>
+                  <c:v>8.3978779631876499E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19059999999999999</c:v>
+                  <c:v>0.12828588282289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21029999999999999</c:v>
+                  <c:v>0.20677052197399101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2278</c:v>
+                  <c:v>0.281817366294904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35856439671521401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3196,51 +4196,68 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>datasetsize!$C$3:$C$6</c:f>
+              <c:f>k!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200000</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>datasetsize!$E$3:$E$6</c:f>
+              <c:f>k!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.8900000000000002E-2</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1376</c:v>
+                  <c:v>8.4436217711290507E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14452000000000001</c:v>
+                  <c:v>0.12954517188855399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15368999999999999</c:v>
+                  <c:v>0.17001640372759799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21662698127477301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>k!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DRV Matching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3267,47 +4284,53 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>datasetsize!$C$3:$C$6</c:f>
+              <c:f>k!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200000</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>datasetsize!$F$3:$F$6</c:f>
+              <c:f>k!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.3499999999999999E-2</c:v>
+                  <c:v>2.83885516846215E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3049999999999999E-2</c:v>
+                  <c:v>5.1526827047154701E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3130000000000004E-2</c:v>
+                  <c:v>9.3413162636768701E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10349999999999999</c:v>
+                  <c:v>0.12993804853537599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16441732500334699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3317,11 +4340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397639120"/>
-        <c:axId val="397641080"/>
+        <c:axId val="291027960"/>
+        <c:axId val="291028352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397639120"/>
+        <c:axId val="291027960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3341,6 +4364,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size of Result Set</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3378,12 +4457,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397641080"/>
+        <c:crossAx val="291028352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397641080"/>
+        <c:axId val="291028352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3440,7 +4519,601 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397639120"/>
+        <c:crossAx val="291027960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPDG vs Size of Dataset</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>datasetsize!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>datasetsize!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>datasetsize!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.12820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>datasetsize!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>datasetsize!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>datasetsize!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.8900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14452000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15368999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>datasetsize!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DRV Matching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>datasetsize!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>datasetsize!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.3499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3049999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3130000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10349999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="291029528"/>
+        <c:axId val="291023648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="291029528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Points in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Dataset</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291023648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="291023648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291029528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3522,6 +5195,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3841,6 +5554,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4344,8 +6097,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4372,8 +6125,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4474,7 +6227,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4506,10 +6259,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4549,22 +6302,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4669,8 +6423,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4802,19 +6556,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4828,6 +6583,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4847,8 +6613,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4956,11 +6722,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4971,11 +6732,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5007,9 +6763,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5363,7 +7116,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5879,8 +7632,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5907,8 +7660,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6009,7 +7762,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6041,10 +7794,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6084,23 +7837,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6205,8 +7957,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6338,20 +8090,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6365,17 +8116,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6395,8 +8135,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6423,8 +8163,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6525,7 +8265,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6557,10 +8297,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6600,23 +8340,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6721,8 +8460,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6854,20 +8593,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6881,17 +8619,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6911,7 +8638,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7427,7 +9154,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8014,20 +10773,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8044,20 +10838,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8067,41 +10861,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8122,8 +10881,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8157,12 +10916,12 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8187,17 +10946,87 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8481,7 +11310,7 @@
   <dimension ref="C2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8491,18 +11320,18 @@
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0.19735</v>
@@ -8525,7 +11354,7 @@
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0.28194000000000002</v>
@@ -8559,23 +11388,23 @@
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>27.403600000000001</v>
@@ -8589,7 +11418,7 @@
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>37.395099999999999</v>
@@ -8611,14 +11440,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8714,15 +11554,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:G4"/>
+  <dimension ref="D2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
       <c r="E3">
         <v>0.42645</v>
       </c>
@@ -8733,7 +11590,10 @@
         <v>0.46172000000000002</v>
       </c>
     </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
       <c r="E4">
         <v>0.25663000000000002</v>
       </c>
@@ -8742,32 +11602,84 @@
       </c>
       <c r="G4">
         <v>0.19672999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>203.904</v>
+      </c>
+      <c r="F8">
+        <v>58.64</v>
+      </c>
+      <c r="G8">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>169.46</v>
+      </c>
+      <c r="F9">
+        <v>15.1631</v>
+      </c>
+      <c r="G9">
+        <v>3.77E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:F8"/>
+  <dimension ref="D4:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E8"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>0.23288947099999999</v>
       </c>
       <c r="F4">
         <v>8.8887517999999999E-2</v>
       </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>1</v>
       </c>
@@ -8775,7 +11687,7 @@
         <v>0.214286802</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>5</v>
       </c>
@@ -8783,7 +11695,7 @@
         <v>0.17311300800000001</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>10</v>
       </c>
@@ -8791,12 +11703,34 @@
         <v>0.189360632</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>20</v>
       </c>
       <c r="E8">
         <v>0.20547453500000001</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.23288947099999999</v>
+      </c>
+      <c r="H10">
+        <v>8.8887517999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>0.23288947099999999</v>
+      </c>
+      <c r="H11">
+        <v>8.8887517999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8807,14 +11741,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:F7"/>
+  <dimension ref="C3:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>50</v>
@@ -8879,14 +11824,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E7"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
@@ -8965,14 +11921,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F7"/>
+  <dimension ref="C2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>10000</v>
@@ -9034,7 +12001,104 @@
         <v>500000</v>
       </c>
       <c r="D7">
-        <v>0.2631</v>
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="F7">
+        <v>8.43E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0.1852</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>0.15509999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>0.1416</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>0.13489999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="G8">
+        <v>9.11E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>9.11E-2</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="G9">
+        <v>9.11E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/results/full_sys_1.xlsx
+++ b/Figures/results/full_sys_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,11 +324,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="238893272"/>
-        <c:axId val="238896016"/>
+        <c:axId val="194909992"/>
+        <c:axId val="194904504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="238893272"/>
+        <c:axId val="194909992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -371,7 +371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238896016"/>
+        <c:crossAx val="194904504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -379,7 +379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238896016"/>
+        <c:axId val="194904504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,7 +430,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238893272"/>
+        <c:crossAx val="194909992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -593,7 +593,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -616,15 +616,73 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ntreesdataset!$E$8:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ntreesdataset!$F$8:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.21310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21310000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ntreesdataset!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -668,76 +726,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.13489999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ntreesdataset!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tree Selection</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:noFill/>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ntreesdataset!$E$8:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ntreesdataset!$F$8:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.21310000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21310000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,11 +798,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235675456"/>
-        <c:axId val="235673104"/>
+        <c:axId val="139736184"/>
+        <c:axId val="139738144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235675456"/>
+        <c:axId val="139736184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,12 +915,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235673104"/>
+        <c:crossAx val="139738144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235673104"/>
+        <c:axId val="139738144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,7 +977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235675456"/>
+        <c:crossAx val="139736184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1003,10 +991,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1280,11 +1264,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="238897192"/>
-        <c:axId val="238898760"/>
+        <c:axId val="139168472"/>
+        <c:axId val="139164160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="238897192"/>
+        <c:axId val="139168472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238898760"/>
+        <c:crossAx val="139164160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1335,7 +1319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238898760"/>
+        <c:axId val="139164160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,7 +1370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238897192"/>
+        <c:crossAx val="139168472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1802,11 +1786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238897584"/>
-        <c:axId val="238893664"/>
+        <c:axId val="139168080"/>
+        <c:axId val="139167296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238897584"/>
+        <c:axId val="139168080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,12 +1903,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238893664"/>
+        <c:crossAx val="139167296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238893664"/>
+        <c:axId val="139167296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +1965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238897584"/>
+        <c:crossAx val="139168080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2274,11 +2258,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="394833808"/>
-        <c:axId val="394827928"/>
+        <c:axId val="139166512"/>
+        <c:axId val="139169256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="394833808"/>
+        <c:axId val="139166512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2321,7 +2305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394827928"/>
+        <c:crossAx val="139169256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2329,7 +2313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394827928"/>
+        <c:axId val="139169256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,7 +2364,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394833808"/>
+        <c:crossAx val="139166512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2673,11 +2657,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="293759952"/>
-        <c:axId val="293766224"/>
+        <c:axId val="139169648"/>
+        <c:axId val="139170040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="293759952"/>
+        <c:axId val="139169648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2720,7 +2704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293766224"/>
+        <c:crossAx val="139170040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2728,7 +2712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293766224"/>
+        <c:axId val="139170040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,7 +2763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293759952"/>
+        <c:crossAx val="139169648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2937,7 +2921,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -2954,88 +2938,6 @@
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>treesSearch!$D$5:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>treesSearch!$E$5:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.214286802</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17311300800000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.189360632</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20547453500000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>treesSearch!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tree Selection</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3070,6 +2972,88 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.23288947099999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>treesSearch!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>treesSearch!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>treesSearch!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.214286802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17311300800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.189360632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20547453500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,11 +3126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238899152"/>
-        <c:axId val="238899544"/>
+        <c:axId val="139164944"/>
+        <c:axId val="139171216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238899152"/>
+        <c:axId val="139164944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3259,12 +3243,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238899544"/>
+        <c:crossAx val="139171216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238899544"/>
+        <c:axId val="139171216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,7 +3305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238899152"/>
+        <c:crossAx val="139164944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3732,11 +3716,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291030312"/>
-        <c:axId val="291023256"/>
+        <c:axId val="139738536"/>
+        <c:axId val="139738928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291030312"/>
+        <c:axId val="139738536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3849,12 +3833,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291023256"/>
+        <c:crossAx val="139738928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291023256"/>
+        <c:axId val="139738928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,7 +3895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291030312"/>
+        <c:crossAx val="139738536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4340,11 +4324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291027960"/>
-        <c:axId val="291028352"/>
+        <c:axId val="139739712"/>
+        <c:axId val="139737752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291027960"/>
+        <c:axId val="139739712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4457,12 +4441,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291028352"/>
+        <c:crossAx val="139737752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291028352"/>
+        <c:axId val="139737752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4519,7 +4503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291027960"/>
+        <c:crossAx val="139739712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4930,11 +4914,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291029528"/>
-        <c:axId val="291023648"/>
+        <c:axId val="139740496"/>
+        <c:axId val="139742064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291029528"/>
+        <c:axId val="139740496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,12 +5035,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291023648"/>
+        <c:crossAx val="139742064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291023648"/>
+        <c:axId val="139742064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5113,7 +5097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291029528"/>
+        <c:crossAx val="139740496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11013,16 +10997,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11653,8 +11637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12020,8 +12004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
